--- a/output/SAFARI_23960625000109.xlsx
+++ b/output/SAFARI_23960625000109.xlsx
@@ -1010,10 +1010,10 @@
         <v>44165</v>
       </c>
       <c r="B57">
-        <v>1.14848989</v>
+        <v>1.1517086</v>
       </c>
       <c r="C57">
-        <v>0.06641023164604043</v>
+        <v>0.06800784925302938</v>
       </c>
     </row>
   </sheetData>

--- a/output/SAFARI_23960625000109.xlsx
+++ b/output/SAFARI_23960625000109.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>SAFARI FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO II</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,24 +383,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>42490</v>
       </c>
@@ -411,609 +405,444 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>42521</v>
       </c>
       <c r="B3">
         <v>0.001316120000000032</v>
       </c>
-      <c r="C3">
-        <v>0.001316120000000032</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>42551</v>
       </c>
       <c r="B4">
-        <v>0.02753117999999999</v>
-      </c>
-      <c r="C4">
         <v>0.02618060318453663</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>42582</v>
       </c>
       <c r="B5">
-        <v>0.1404161900000001</v>
-      </c>
-      <c r="C5">
         <v>0.1098604229216675</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>42613</v>
       </c>
       <c r="B6">
-        <v>0.1845413300000001</v>
-      </c>
-      <c r="C6">
         <v>0.03869213747307465</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>42643</v>
       </c>
       <c r="B7">
-        <v>0.17948422</v>
-      </c>
-      <c r="C7">
         <v>-0.004269255847746622</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>42674</v>
       </c>
       <c r="B8">
-        <v>0.2834872799999999</v>
-      </c>
-      <c r="C8">
         <v>0.08817672863821779</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>42704</v>
       </c>
       <c r="B9">
-        <v>0.2316042899999999</v>
-      </c>
-      <c r="C9">
         <v>-0.04042345476146825</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>42735</v>
       </c>
       <c r="B10">
-        <v>0.2131919900000001</v>
-      </c>
-      <c r="C10">
         <v>-0.01494985049134556</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>42766</v>
       </c>
       <c r="B11">
-        <v>0.2688189599999999</v>
-      </c>
-      <c r="C11">
         <v>0.04585174519657009</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>42794</v>
       </c>
       <c r="B12">
-        <v>0.3411063700000001</v>
-      </c>
-      <c r="C12">
         <v>0.05697220192863472</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>42825</v>
       </c>
       <c r="B13">
-        <v>0.34035247</v>
-      </c>
-      <c r="C13">
         <v>-0.0005621478033842608</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>42855</v>
       </c>
       <c r="B14">
-        <v>0.3793536399999999</v>
-      </c>
-      <c r="C14">
         <v>0.02909769696623155</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>42886</v>
       </c>
       <c r="B15">
-        <v>0.3001229599999999</v>
-      </c>
-      <c r="C15">
         <v>-0.05744044000202875</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>42916</v>
       </c>
       <c r="B16">
-        <v>0.29329761</v>
-      </c>
-      <c r="C16">
         <v>-0.005249772683039167</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>42947</v>
       </c>
       <c r="B17">
-        <v>0.3519923</v>
-      </c>
-      <c r="C17">
         <v>0.04538374581856686</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>42978</v>
       </c>
       <c r="B18">
-        <v>0.43276768</v>
-      </c>
-      <c r="C18">
         <v>0.05974544381650682</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43008</v>
       </c>
       <c r="B19">
-        <v>0.5302638099999999</v>
-      </c>
-      <c r="C19">
         <v>0.06804741017050286</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43039</v>
       </c>
       <c r="B20">
-        <v>0.5310529799999999</v>
-      </c>
-      <c r="C20">
         <v>0.0005157084646731924</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43069</v>
       </c>
       <c r="B21">
-        <v>0.4639583</v>
-      </c>
-      <c r="C21">
         <v>-0.04382257235801201</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43100</v>
       </c>
       <c r="B22">
-        <v>0.54812835</v>
-      </c>
-      <c r="C22">
         <v>0.05749484121234882</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43131</v>
       </c>
       <c r="B23">
-        <v>0.6344093500000001</v>
-      </c>
-      <c r="C23">
         <v>0.055732459133637</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43159</v>
       </c>
       <c r="B24">
-        <v>0.6821324200000001</v>
-      </c>
-      <c r="C24">
         <v>0.02919897025797114</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43190</v>
       </c>
       <c r="B25">
-        <v>0.6870175300000001</v>
-      </c>
-      <c r="C25">
         <v>0.002904117382150018</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43220</v>
       </c>
       <c r="B26">
-        <v>0.7576002799999999</v>
-      </c>
-      <c r="C26">
         <v>0.04183877686202808</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43251</v>
       </c>
       <c r="B27">
-        <v>0.77405155</v>
-      </c>
-      <c r="C27">
         <v>0.009360074749191538</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>43281</v>
       </c>
       <c r="B28">
-        <v>0.76887861</v>
-      </c>
-      <c r="C28">
         <v>-0.002915890465527871</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43312</v>
       </c>
       <c r="B29">
-        <v>0.81908304</v>
-      </c>
-      <c r="C29">
         <v>0.02838206630810003</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43343</v>
       </c>
       <c r="B30">
-        <v>0.7447944799999999</v>
-      </c>
-      <c r="C30">
         <v>-0.04083846551612069</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43373</v>
       </c>
       <c r="B31">
-        <v>0.72362759</v>
-      </c>
-      <c r="C31">
         <v>-0.01213145172261199</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>43404</v>
       </c>
       <c r="B32">
-        <v>0.8731425100000001</v>
-      </c>
-      <c r="C32">
         <v>0.08674432973076285</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>43434</v>
       </c>
       <c r="B33">
-        <v>0.92315988</v>
-      </c>
-      <c r="C33">
         <v>0.02670238368569189</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>43465</v>
       </c>
       <c r="B34">
-        <v>0.9040385099999999</v>
-      </c>
-      <c r="C34">
         <v>-0.009942683496496518</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>43496</v>
       </c>
       <c r="B35">
-        <v>1.11053196</v>
-      </c>
-      <c r="C35">
         <v>0.1084502487294756</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>43524</v>
       </c>
       <c r="B36">
-        <v>1.07551274</v>
-      </c>
-      <c r="C36">
         <v>-0.01659260350646374</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>43555</v>
       </c>
       <c r="B37">
-        <v>1.02424613</v>
-      </c>
-      <c r="C37">
         <v>-0.0247006963686478</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>43585</v>
       </c>
       <c r="B38">
-        <v>1.05771774</v>
-      </c>
-      <c r="C38">
         <v>0.01653534592653538</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>43616</v>
       </c>
       <c r="B39">
-        <v>1.13524615</v>
-      </c>
-      <c r="C39">
         <v>0.03767689245853512</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>43646</v>
       </c>
       <c r="B40">
-        <v>1.23144401</v>
-      </c>
-      <c r="C40">
         <v>0.04505235145840225</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>43677</v>
       </c>
       <c r="B41">
-        <v>1.37199362</v>
-      </c>
-      <c r="C41">
         <v>0.06298594514141542</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>43708</v>
       </c>
       <c r="B42">
-        <v>1.41763437</v>
-      </c>
-      <c r="C42">
         <v>0.01924151465466428</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>43738</v>
       </c>
       <c r="B43">
-        <v>1.42843426</v>
-      </c>
-      <c r="C43">
         <v>0.0044671312312623</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>43769</v>
       </c>
       <c r="B44">
-        <v>1.45469093</v>
-      </c>
-      <c r="C44">
         <v>0.01081218068468526</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>43799</v>
       </c>
       <c r="B45">
-        <v>1.46801084</v>
-      </c>
-      <c r="C45">
         <v>0.005426308394759882</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>43830</v>
       </c>
       <c r="B46">
-        <v>1.72498198</v>
-      </c>
-      <c r="C46">
         <v>0.1041207501341446</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>43861</v>
       </c>
       <c r="B47">
-        <v>1.79688767</v>
-      </c>
-      <c r="C47">
         <v>0.02638758367128724</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>43890</v>
       </c>
       <c r="B48">
-        <v>1.43868087</v>
-      </c>
-      <c r="C48">
         <v>-0.1280733594853311</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>43921</v>
       </c>
       <c r="B49">
-        <v>0.64279909</v>
-      </c>
-      <c r="C49">
         <v>-0.3263574950665848</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>43951</v>
       </c>
       <c r="B50">
-        <v>0.80310379</v>
-      </c>
-      <c r="C50">
         <v>0.09758022205868144</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>43982</v>
       </c>
       <c r="B51">
-        <v>0.9074340700000001</v>
-      </c>
-      <c r="C51">
         <v>0.05786149448446354</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>44012</v>
       </c>
       <c r="B52">
-        <v>1.1237777</v>
-      </c>
-      <c r="C52">
         <v>0.1134212885271573</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>44043</v>
       </c>
       <c r="B53">
-        <v>1.33965341</v>
-      </c>
-      <c r="C53">
         <v>0.1016470367873246</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>44074</v>
       </c>
       <c r="B54">
-        <v>1.27575823</v>
-      </c>
-      <c r="C54">
         <v>-0.0273096774620134</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>44104</v>
       </c>
       <c r="B55">
-        <v>1.1157124</v>
-      </c>
-      <c r="C55">
         <v>-0.07032637645344253</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>44135</v>
       </c>
       <c r="B56">
-        <v>1.01469362</v>
-      </c>
-      <c r="C56">
         <v>-0.04774693384601802</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>44165</v>
       </c>
       <c r="B57">
-        <v>1.1517086</v>
-      </c>
-      <c r="C57">
-        <v>0.06800784925302938</v>
+        <v>0.04221481080582357</v>
       </c>
     </row>
   </sheetData>
